--- a/03.crawler/30.TecDoc/file/input.xlsx
+++ b/03.crawler/30.TecDoc/file/input.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14040"/>
+    <workbookView windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,10 +38,10 @@
     <t>Url</t>
   </si>
   <si>
-    <t>https://web.tecalliance.net/tecdocsw/en/parts/search?brands=101&amp;groups=247#@brc/search:Search%2520by%2520brands%2520and%2520product%2520groups;brands:101;groups:247</t>
+    <t>https://web.tecalliance.net/tecdoc/qa/parts/search?brands=21&amp;groups=298#@brc/search:Brand%2520and%2520product%2520group%2520search;brands:21;groups:298</t>
   </si>
   <si>
-    <t>https://web.tecalliance.net/tecdocsw/en/parts/search?brands=244&amp;groups=1361#@brc/search:Search%2520by%2520brands%2520and%2520product%2520groups;brands:244;groups:1361</t>
+    <t>https://web.tecalliance.net/tecdoc/qa/parts/search?brands=30&amp;groups=298#@brc/search:Brand%2520and%2520product%2520group%2520search;brands:30;groups:298</t>
   </si>
 </sst>
 </file>
@@ -60,15 +63,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -428,24 +432,28 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -457,7 +465,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -470,7 +480,9 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1312,12 +1324,12 @@
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.6923076923077" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.69230769230769" style="2" customWidth="1"/>
     <col min="2" max="2" width="100.692307692308" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1329,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="17.5" customHeight="1" spans="1:2">
+    <row r="2" spans="1:2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1337,7 +1349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="17.5" customHeight="1" spans="1:2">
+    <row r="3" ht="17.55" spans="1:2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1346,6 +1358,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:B3" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
